--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JianLpeng\DailyWork\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7B499819-3214-47CE-A32E-C5403E4E0CBF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54126824-5659-43DB-91EF-B3E60F53423E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18468" windowHeight="9924" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -394,6 +394,15 @@
 2、搭建第一个微信小程序
 3、完成吴恩达机器学习四个课时
 4、完成STM32微信通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习STM32外部中断</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、学习一节机器学习
+2、完成模拟串口的全部功能，实现两块SK9042通信</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,7 +533,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -555,8 +564,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -567,26 +579,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1010,7 +1022,7 @@
       <c r="A1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -1024,10 +1036,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C2" s="6"/>
@@ -1035,10 +1047,10 @@
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C3" s="3"/>
@@ -1046,10 +1058,10 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C4" s="3"/>
@@ -1057,10 +1069,10 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>100</v>
       </c>
       <c r="C5" s="3"/>
@@ -1098,7 +1110,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1141,392 +1153,422 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="C2" s="21">
+        <v>43325</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="11"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="21">
+        <v>43326</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>103</v>
+      </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="21">
+        <v>43327</v>
+      </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="21">
+        <v>43328</v>
+      </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="21">
+        <v>43329</v>
+      </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="21">
+        <v>43330</v>
+      </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="21">
+        <v>43331</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="21">
+        <v>43332</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="21">
+        <v>43333</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="21">
+        <v>43334</v>
+      </c>
       <c r="D11" s="9"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="11"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="H12:H18"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="H33:H39"/>
@@ -1536,12 +1578,6 @@
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="H26:H32"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="H12:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1687,10 +1723,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1699,11 +1735,11 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1717,11 +1753,11 @@
       <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1735,12 +1771,12 @@
         <v>33</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="12"/>
+      <c r="H4" s="13"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1754,11 +1790,11 @@
         <v>37</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="12"/>
+      <c r="H5" s="13"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1766,11 +1802,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="12"/>
+      <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1780,11 +1816,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1796,11 +1832,11 @@
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1808,80 +1844,80 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
       <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="20"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="13"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1891,33 +1927,33 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="13"/>
+      <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1925,11 +1961,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1939,11 +1975,11 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
@@ -1957,11 +1993,11 @@
         <v>58</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
@@ -1973,11 +2009,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="12"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
@@ -1985,11 +2021,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="12"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
@@ -2001,11 +2037,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="12"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2015,13 +2051,13 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="13"/>
+      <c r="H25" s="14"/>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
@@ -2031,11 +2067,11 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
         <v>71</v>
       </c>
@@ -2043,11 +2079,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="12"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
@@ -2057,11 +2093,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="12"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
@@ -2071,11 +2107,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
@@ -2087,11 +2123,11 @@
       <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
       <c r="C31" s="3" t="s">
         <v>79</v>
       </c>
@@ -2101,11 +2137,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2113,11 +2149,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="13"/>
+      <c r="H32" s="14"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2127,13 +2163,13 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="11" t="s">
+      <c r="H33" s="12" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
       <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
@@ -2143,11 +2179,11 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2157,11 +2193,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
         <v>89</v>
       </c>
@@ -2169,11 +2205,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="3" t="s">
         <v>90</v>
       </c>
@@ -2181,11 +2217,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
@@ -2193,11 +2229,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="12"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
       <c r="C39" s="3" t="s">
         <v>92</v>
       </c>
@@ -2205,26 +2241,26 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="13"/>
+      <c r="H39" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B39"/>
     <mergeCell ref="H33:H39"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="H19:H25"/>
     <mergeCell ref="H26:H32"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B39"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JianLpeng\DailyWork\plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{54126824-5659-43DB-91EF-B3E60F53423E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EE358E46-5DE4-4334-879F-B3DA4B712D0C}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18468" windowHeight="9924" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="105">
   <si>
     <t>序号</t>
   </si>
@@ -403,6 +403,11 @@
   <si>
     <t>1、学习一节机器学习
 2、完成模拟串口的全部功能，实现两块SK9042通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、机器学习未看
+2、模拟串口遇到问题，已经解决</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -570,13 +575,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -592,13 +591,19 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,7 +1115,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1153,13 +1158,13 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="12">
         <v>43325</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1167,408 +1172,404 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="21">
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="12">
         <v>43326</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
-      <c r="H3" s="13"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="21">
+      <c r="A4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="12">
         <v>43327</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="18"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="21">
+      <c r="A5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="12">
         <v>43328</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="21">
+      <c r="A6" s="14"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="12">
         <v>43329</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="21">
+      <c r="A7" s="14"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="12">
         <v>43330</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="21">
+      <c r="A8" s="14"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="12">
         <v>43331</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="21">
+      <c r="A9" s="14"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="12">
         <v>43332</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="21">
+      <c r="A10" s="14"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="12">
         <v>43333</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="21">
+      <c r="A11" s="14"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="12">
         <v>43334</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="18"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="13"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="12"/>
+      <c r="H33" s="17"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="H12:H18"/>
     <mergeCell ref="A33:A39"/>
     <mergeCell ref="B33:B39"/>
     <mergeCell ref="H33:H39"/>
@@ -1578,6 +1579,12 @@
     <mergeCell ref="A26:A32"/>
     <mergeCell ref="B26:B32"/>
     <mergeCell ref="H26:H32"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="H12:H18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1723,10 +1730,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="14"/>
       <c r="C2" s="3" t="s">
         <v>24</v>
       </c>
@@ -1735,11 +1742,11 @@
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="12"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:11" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="3" t="s">
         <v>26</v>
       </c>
@@ -1753,11 +1760,11 @@
       <c r="G3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="13"/>
+      <c r="H3" s="18"/>
     </row>
     <row r="4" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1771,12 +1778,12 @@
         <v>33</v>
       </c>
       <c r="G4" s="3"/>
-      <c r="H4" s="13"/>
+      <c r="H4" s="18"/>
       <c r="K4" s="4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="3" t="s">
         <v>34</v>
       </c>
@@ -1790,11 +1797,11 @@
         <v>37</v>
       </c>
       <c r="G5" s="3"/>
-      <c r="H5" s="13"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3" t="s">
         <v>38</v>
       </c>
@@ -1802,11 +1809,11 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="13"/>
+      <c r="H6" s="18"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3" t="s">
         <v>39</v>
       </c>
@@ -1816,11 +1823,11 @@
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="13"/>
+      <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:11" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1832,11 +1839,11 @@
         <v>43</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="13"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
@@ -1844,80 +1851,80 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="13"/>
+      <c r="H9" s="18"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="20" t="s">
         <v>46</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="13"/>
+      <c r="H10" s="18"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="20"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="19"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="12"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="13"/>
+      <c r="H13" s="18"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="13"/>
+      <c r="H14" s="18"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="13"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="72" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
@@ -1927,33 +1934,33 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="13"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="13"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="14"/>
+      <c r="H18" s="19"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12"/>
+      <c r="B19" s="17"/>
       <c r="C19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1961,11 +1968,11 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="12"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="3" t="s">
         <v>53</v>
       </c>
@@ -1975,11 +1982,11 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="13"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="86.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="3" t="s">
         <v>55</v>
       </c>
@@ -1993,11 +2000,11 @@
         <v>58</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="13"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="3" t="s">
         <v>59</v>
       </c>
@@ -2009,11 +2016,11 @@
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="13"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="3" t="s">
         <v>62</v>
       </c>
@@ -2021,11 +2028,11 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="13"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
@@ -2037,11 +2044,11 @@
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2051,13 +2058,13 @@
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="19"/>
     </row>
     <row r="26" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="12"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="3" t="s">
         <v>69</v>
       </c>
@@ -2067,11 +2074,11 @@
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="12"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="3" t="s">
         <v>71</v>
       </c>
@@ -2079,11 +2086,11 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="3" t="s">
         <v>72</v>
       </c>
@@ -2093,11 +2100,11 @@
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="13"/>
+      <c r="H28" s="18"/>
     </row>
     <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="3" t="s">
         <v>74</v>
       </c>
@@ -2107,11 +2114,11 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="13"/>
+      <c r="H29" s="18"/>
     </row>
     <row r="30" spans="1:8" ht="57.6" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="3" t="s">
         <v>76</v>
       </c>
@@ -2123,11 +2130,11 @@
       <c r="G30" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="18"/>
     </row>
     <row r="31" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="3" t="s">
         <v>79</v>
       </c>
@@ -2137,11 +2144,11 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
-      <c r="H31" s="13"/>
+      <c r="H31" s="18"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
       <c r="C32" s="3" t="s">
         <v>81</v>
       </c>
@@ -2149,11 +2156,11 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
-      <c r="H32" s="14"/>
+      <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
       <c r="C33" s="3" t="s">
         <v>82</v>
       </c>
@@ -2163,13 +2170,13 @@
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="17" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="43.2" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="3" t="s">
         <v>85</v>
       </c>
@@ -2179,11 +2186,11 @@
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
-      <c r="H34" s="13"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="18"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="3" t="s">
         <v>87</v>
       </c>
@@ -2193,11 +2200,11 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
-      <c r="H35" s="13"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="3" t="s">
         <v>89</v>
       </c>
@@ -2205,11 +2212,11 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
-      <c r="H36" s="13"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="18"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="3" t="s">
         <v>90</v>
       </c>
@@ -2217,11 +2224,11 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
-      <c r="H37" s="13"/>
+      <c r="H37" s="18"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="3" t="s">
         <v>91</v>
       </c>
@@ -2229,11 +2236,11 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
-      <c r="H38" s="13"/>
+      <c r="H38" s="18"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
       <c r="C39" s="3" t="s">
         <v>92</v>
       </c>
@@ -2241,26 +2248,26 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
-      <c r="H39" s="14"/>
+      <c r="H39" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A26:A32"/>
-    <mergeCell ref="A33:A39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="B12:B18"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="B33:B39"/>
     <mergeCell ref="H33:H39"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="H2:H11"/>
     <mergeCell ref="H12:H18"/>
     <mergeCell ref="H19:H25"/>
     <mergeCell ref="H26:H32"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="B12:B18"/>
+    <mergeCell ref="B19:B25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B33:B39"/>
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A32"/>
+    <mergeCell ref="A33:A39"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/plan/工作计划.xlsx
+++ b/plan/工作计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9924" activeTab="2"/>
+    <workbookView windowWidth="22943" windowHeight="9515" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2018年度计划" sheetId="4" r:id="rId1"/>
@@ -12,14 +12,15 @@
     <sheet name="8月份工作详细" sheetId="6" r:id="rId3"/>
     <sheet name="3月工作计划" sheetId="1" r:id="rId4"/>
     <sheet name="3月工作详细" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="10月份计划" sheetId="7" r:id="rId6"/>
+    <sheet name="10月份工作详细" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118">
   <si>
     <t>序号</t>
   </si>
@@ -63,26 +64,7 @@
     <t>搭建第一个微信小程序</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>看完O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>KR工作法，并写总结</t>
-    </r>
+    <t>看完OKR工作法，并写总结</t>
   </si>
   <si>
     <t>周</t>
@@ -400,18 +382,59 @@
   <si>
     <t>2018.4.1</t>
   </si>
+  <si>
+    <t>本月工作计划（10.1-10.31）</t>
+  </si>
+  <si>
+    <t>实现目标</t>
+  </si>
+  <si>
+    <t>看4节机器学习实战</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>每个星期看一节</t>
+  </si>
+  <si>
+    <t>1、掌握最基本的概念
+2、熟练掌握python数据处理</t>
+  </si>
+  <si>
+    <t>熟悉linux系统</t>
+  </si>
+  <si>
+    <t>1、熟练使用linux系统，熟记基本指令
+2、在linux环境下熟练使用C和python</t>
+  </si>
+  <si>
+    <t>了解汇编语言</t>
+  </si>
+  <si>
+    <t>1、稍微了解，有概念就行</t>
+  </si>
+  <si>
+    <t>学习树莓派</t>
+  </si>
+  <si>
+    <t>英语学习</t>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -421,13 +444,6 @@
     </font>
     <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -449,9 +465,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -472,9 +495,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -488,17 +518,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,7 +535,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,17 +556,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -559,27 +589,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -612,19 +628,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,25 +712,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,49 +748,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,31 +790,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,26 +862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -891,7 +881,46 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -911,41 +940,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -957,10 +967,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -969,167 +979,194 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1137,24 +1174,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -1514,7 +1533,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77777777777778" defaultRowHeight="14.4" outlineLevelCol="1"/>
@@ -1524,84 +1543,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20">
+      <c r="A2" s="23">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="23" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20">
+      <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="23" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20">
+      <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="23"/>
+      <c r="B6" s="23"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="23"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1615,7 +1634,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C28" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1627,79 +1646,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1718,457 +1737,457 @@
   <sheetPr/>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.8888888888889" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.5555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.3333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.8888888888889" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="4">
         <v>43325</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="43.2" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="15">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4">
         <v>43326</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4">
         <v>43327</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="K4" s="10"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="15">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4">
         <v>43328</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="15">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4">
         <v>43329</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="15">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4">
         <v>43330</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="15">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4">
         <v>43331</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="15">
+      <c r="B9" s="7"/>
+      <c r="C9" s="4">
         <v>43332</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4">
         <v>43333</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="4">
         <v>43334</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6"/>
-      <c r="K11" s="10"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="15">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4">
         <v>43335</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="15">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4">
         <v>43336</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="15">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4">
         <v>43337</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="15">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4">
         <v>43338</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="15">
+      <c r="B16" s="7"/>
+      <c r="C16" s="4">
         <v>43339</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4">
         <v>43340</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="15">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4">
         <v>43341</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="15">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4">
         <v>43342</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" ht="43.2" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="15">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="4">
         <v>43343</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="15">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="4">
         <v>43344</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4">
         <v>43345</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="9"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="10"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="9"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="5"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="10"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="9"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -2204,79 +2223,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.2222222222222" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1111111111111" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7777777777778" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1111111111111" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2222222222222" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="29.2222222222222" style="5" customWidth="1"/>
+    <col min="2" max="2" width="49.1111111111111" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.7777777777778" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.1111111111111" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.2222222222222" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" customHeight="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="27" customHeight="1" spans="1:4">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12" t="s">
+      <c r="C2" s="21"/>
+      <c r="D2" s="21" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="28.05" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="184.05" customHeight="1" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2290,569 +2309,569 @@
   <sheetPr/>
   <dimension ref="A1:K39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="14.8888888888889" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.3333333333333" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.4444444444444" style="1" customWidth="1"/>
-    <col min="7" max="7" width="37.8888888888889" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.6666666666667" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="14.8888888888889" style="5" customWidth="1"/>
+    <col min="3" max="3" width="19" style="5" customWidth="1"/>
+    <col min="4" max="4" width="29.5555555555556" style="5" customWidth="1"/>
+    <col min="5" max="5" width="34.3333333333333" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.4444444444444" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.8888888888889" style="5" customWidth="1"/>
+    <col min="8" max="8" width="26.6666666666667" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:8">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
     </row>
     <row r="3" ht="57.6" spans="1:8">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="6"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" ht="72" spans="1:11">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6"/>
-      <c r="K4" s="10"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+      <c r="K4" s="19"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" ht="28.8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6"/>
-      <c r="K14" s="10"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" ht="72" spans="1:8">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="7"/>
+      <c r="C19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" ht="86.4" spans="1:8">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" ht="86.4" spans="1:8">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" ht="57.6" spans="1:8">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="4" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="10"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="4" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" ht="115.2" spans="1:8">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="4" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="4" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" ht="57.6" spans="1:8">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="4" t="s">
+      <c r="B26" s="7"/>
+      <c r="C26" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="4" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" ht="57.6" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="4" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="29" ht="28.8" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="4" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="10"/>
     </row>
     <row r="30" ht="57.6" spans="1:8">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="4" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4" t="s">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H30" s="6"/>
+      <c r="H30" s="10"/>
     </row>
     <row r="31" ht="43.2" spans="1:8">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="4" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="4" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="9"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="4" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5" t="s">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="7" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" ht="43.2" spans="1:8">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="4" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="4" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="10"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="4" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="4" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="9"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2882,16 +2901,535 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="2" width="27.7777777777778" style="12" customWidth="1"/>
+    <col min="3" max="4" width="26.4444444444444" style="12" customWidth="1"/>
+    <col min="5" max="5" width="22.6666666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="28.3333333333333" style="12" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" ht="28.8" spans="1:6">
+      <c r="A2" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" ht="57.6" spans="1:6">
+      <c r="A3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
+      <formula1>"高,中,一般"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="21.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="29.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="22.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="19.1111111111111" customWidth="1"/>
+    <col min="7" max="7" width="17.5555555555556" customWidth="1"/>
+    <col min="8" max="8" width="21.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="4">
+        <v>43374</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="4">
+        <v>43375</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="4">
+        <v>43376</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="4">
+        <v>43377</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="4">
+        <v>43378</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="4">
+        <v>43379</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="4">
+        <v>43380</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="4">
+        <v>43381</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="4">
+        <v>43382</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="4">
+        <v>43383</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="4">
+        <v>43384</v>
+      </c>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="4">
+        <v>43385</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="4">
+        <v>43386</v>
+      </c>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="4">
+        <v>43387</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="4">
+        <v>43388</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="7"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="4">
+        <v>43389</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="4">
+        <v>43390</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="4">
+        <v>43391</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="4">
+        <v>43392</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="4">
+        <v>43393</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="4">
+        <v>43394</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="4">
+        <v>43395</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="7"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="4">
+        <v>43396</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="4">
+        <v>43397</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="4">
+        <v>43398</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="4">
+        <v>43399</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4">
+        <v>43400</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="4">
+        <v>43401</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A15"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="B2:B8"/>
+    <mergeCell ref="B9:B15"/>
+    <mergeCell ref="B16:B22"/>
+    <mergeCell ref="B23:B29"/>
+    <mergeCell ref="H2:H8"/>
+    <mergeCell ref="H9:H15"/>
+    <mergeCell ref="H16:H22"/>
+    <mergeCell ref="H23:H29"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>